--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_126.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2701149425287356</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:28.640000', '0:01:05.900000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'E:7']]</t>
-        </is>
+          <t>isophonics_185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_257</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1512605042016807</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'E:7']]</t>
+          <t>[['B:min', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(208.407074, 216.441179)]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(80.811, 84.866)]</t>
+          <t>[('0:00:48.617346', '0:00:59.937074')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:12.405827', '0:00:17.850907')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2392857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:04:43.300000', '0:04:47.580000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07824675324675325</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'A/b7', 'F#:min7']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.233974358974359</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F/5', 'F', 'F:maj6']]</t>
+          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(39.029115, 43.301587)]</t>
+          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.82, 9.91)]</t>
+          <t>[('0:00:34.380000', '0:00:41.200000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:41.060000', '0:00:45.160000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2095238095238095</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1016666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.08, 19.06)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:37.773990', '0:01:42.557301')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:17.374897', '0:00:24.108684')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:maj', 'C#:maj'], ['C#:maj', 'G#:7', 'C#:maj', 'G#:maj']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.34, 43.3), (39.26, 42.74)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.48, 10.78), (7.92, 10.2)]</t>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06593406593406594</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['F:min', 'C:7', 'F:min'], ['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(65.02, 68.08), (41.58, 43.48), (16.92, 23.9)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(63.858, 80.628), (17.833, 21.409), (0.243, 9.12)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42), (1.26, 5.92)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09351927809680066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66), (28.19, 36.12)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56), (20.74, 23.2)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1281281281281281</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.294, 7.605)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(142.379117, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09639830508474576</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D:7', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'G:7', 'G:7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.55, 17.22)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.84, 15.04)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(196.576, 250.057)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(133.919, 147.191)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.34, 17.94)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1438263229308005</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.37, 8.66)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.16, 47.44)]</t>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.58, 29.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
